--- a/public/plantillasExel/plantilla_inscripcion.xlsx
+++ b/public/plantillasExel/plantilla_inscripcion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36F61F-7DC5-475C-B56E-D415CD005300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F77E42E-BA11-4922-85BB-4BD2B5E7B7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla Estudiantes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Nombre</t>
   </si>
@@ -67,9 +67,6 @@
     <t>ApellidoM1</t>
   </si>
   <si>
-    <t>CI123456</t>
-  </si>
-  <si>
     <t>ejemplo1@email.com</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>ApellidoM2</t>
   </si>
   <si>
-    <t>CI654321</t>
-  </si>
-  <si>
     <t>ejemplo2@email.com</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
   </si>
   <si>
     <t>ApellidoM3</t>
-  </si>
-  <si>
-    <t>CI789012</t>
   </si>
   <si>
     <t>ejemplo3@email.com</t>
@@ -512,7 +503,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,108 +566,108 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="1">
         <v>38579</v>
       </c>
       <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>654321</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="F3" s="1">
         <v>38847</v>
       </c>
       <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4">
+        <v>789012</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F4" s="1">
         <v>39161</v>
       </c>
       <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/plantillasExel/plantilla_inscripcion.xlsx
+++ b/public/plantillasExel/plantilla_inscripcion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F77E42E-BA11-4922-85BB-4BD2B5E7B7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73752A69-5689-4B44-A452-47F6F34D54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla Estudiantes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Nombre</t>
   </si>
@@ -58,95 +58,134 @@
     <t>Delegación</t>
   </si>
   <si>
-    <t>EjemploNombre1</t>
-  </si>
-  <si>
-    <t>ApellidoP1</t>
-  </si>
-  <si>
-    <t>ApellidoM1</t>
-  </si>
-  <si>
-    <t>ejemplo1@email.com</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>ÁreaEjemplo1</t>
-  </si>
-  <si>
-    <t>70000001</t>
-  </si>
-  <si>
-    <t>DelegaciónEjemplo1</t>
-  </si>
-  <si>
-    <t>EjemploNombre2</t>
-  </si>
-  <si>
-    <t>ApellidoP2</t>
-  </si>
-  <si>
-    <t>ApellidoM2</t>
-  </si>
-  <si>
-    <t>ejemplo2@email.com</t>
+    <t>Unidad Educativa San Martín</t>
+  </si>
+  <si>
+    <t>1ro de Secundaria</t>
+  </si>
+  <si>
+    <t>2002-03-04</t>
+  </si>
+  <si>
+    <t>2002-03-05</t>
+  </si>
+  <si>
+    <t>2002-03-06</t>
+  </si>
+  <si>
+    <t>2002/03/03</t>
+  </si>
+  <si>
+    <t>Nombre y Apellidos del tutor</t>
+  </si>
+  <si>
+    <t>Correo del tutor</t>
+  </si>
+  <si>
+    <t>tutorPadreENCARAGDO@GMAIL</t>
+  </si>
+  <si>
+    <t>Estudiante1</t>
+  </si>
+  <si>
+    <t>Estudiante2</t>
+  </si>
+  <si>
+    <t>Estudiante3</t>
+  </si>
+  <si>
+    <t>Estudiante4</t>
+  </si>
+  <si>
+    <t>ApellidoPaterno1</t>
+  </si>
+  <si>
+    <t>ApellidoPaterno2</t>
+  </si>
+  <si>
+    <t>ApellidoPaterno3</t>
+  </si>
+  <si>
+    <t>ApellidoPaterno4</t>
+  </si>
+  <si>
+    <t>ApellidoMaterno1</t>
+  </si>
+  <si>
+    <t>ApellidoMaterno2</t>
+  </si>
+  <si>
+    <t>ApellidoMaterno3</t>
+  </si>
+  <si>
+    <t>ApellidoMaterno4</t>
+  </si>
+  <si>
+    <t>correo1@gmail.com</t>
+  </si>
+  <si>
+    <t>correo2@gmail.com</t>
+  </si>
+  <si>
+    <t>correo3@gmail.com</t>
+  </si>
+  <si>
+    <t>correo4@gmail.com</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>ÁreaEjemplo2</t>
-  </si>
-  <si>
-    <t>70000002</t>
-  </si>
-  <si>
-    <t>DelegaciónEjemplo2</t>
-  </si>
-  <si>
-    <t>EjemploNombre3</t>
-  </si>
-  <si>
-    <t>ApellidoP3</t>
-  </si>
-  <si>
-    <t>ApellidoM3</t>
-  </si>
-  <si>
-    <t>ejemplo3@email.com</t>
-  </si>
-  <si>
-    <t>70000003</t>
-  </si>
-  <si>
-    <t>1p</t>
+    <t>Área1</t>
+  </si>
+  <si>
+    <t>Área2</t>
+  </si>
+  <si>
+    <t>Área3</t>
+  </si>
+  <si>
+    <t>Área4</t>
+  </si>
+  <si>
+    <t>Categoria1</t>
+  </si>
+  <si>
+    <t>Categoria2</t>
+  </si>
+  <si>
+    <t>Categoria3</t>
+  </si>
+  <si>
+    <t>Categoria4</t>
+  </si>
+  <si>
+    <t>2do de Primaria</t>
   </si>
   <si>
     <t>3ro de Primaria</t>
   </si>
   <si>
-    <t>1ro de Primaria</t>
-  </si>
-  <si>
-    <t>2do de Primaria</t>
-  </si>
-  <si>
-    <t>2p</t>
-  </si>
-  <si>
-    <t>3p</t>
+    <t>Nombre Apellidos tutor1</t>
+  </si>
+  <si>
+    <t>Nombre Apellidos tutor2</t>
+  </si>
+  <si>
+    <t>Nombre Apellidos tutor3</t>
+  </si>
+  <si>
+    <t>Nombre Apellidos tutor4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +205,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,11 +244,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -500,182 +554,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" customWidth="1"/>
+    <col min="14" max="14" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>12345679</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>63887464</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>12345679</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>63887464</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>12345679</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4">
+        <v>63887464</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>12345679</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1">
-        <v>38579</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="K5">
+        <v>63887464</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>654321</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1">
-        <v>38847</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>789012</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1">
-        <v>39161</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{95442933-8AE4-41E2-91B4-DA52240AC78B}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{BC04D35A-A242-4B82-A7E8-31B13D4445FC}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{EBF7CD42-7FB8-4CAD-B025-E2F92AB7DFBB}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3B374B01-F81A-45AC-AFAA-0B896D3AEA88}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{9B4B4810-6E59-49C0-8AE5-A1E2860537F5}"/>
+    <hyperlink ref="N3" r:id="rId3" xr:uid="{83196340-12AD-4EB7-A211-12A7E0958961}"/>
+    <hyperlink ref="N4" r:id="rId4" xr:uid="{B17A8E36-C399-4E49-B0DC-C793DBCEA39D}"/>
+    <hyperlink ref="N5" r:id="rId5" xr:uid="{BFFE8C52-F7CA-4440-B140-C9498842ED6C}"/>
+    <hyperlink ref="E3:E5" r:id="rId6" display="t9@gmail.com" xr:uid="{00100EBB-8124-4249-8F82-0CDCC3E476E8}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{5F59B778-E74F-434D-9676-0F736C1303A2}"/>
+    <hyperlink ref="E4" r:id="rId8" xr:uid="{38C3091A-71F6-4B27-BD5A-DF91006D84BA}"/>
+    <hyperlink ref="E5" r:id="rId9" xr:uid="{45EC7D2B-9946-4C55-A87D-98AB6A48BD5F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId10"/>
 </worksheet>
 </file>
--- a/public/plantillasExel/plantilla_inscripcion.xlsx
+++ b/public/plantillasExel/plantilla_inscripcion.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73752A69-5689-4B44-A452-47F6F34D54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Plantilla Estudiantes" sheetId="1" r:id="rId1"/>
+    <sheet name="Inscripciones" sheetId="1" r:id="rId4"/>
+    <sheet name="Options_G" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Options_H" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="Options_L" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="Options_O" sheetId="5" state="hidden" r:id="rId8"/>
+    <sheet name="Instrucciones" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="Options_G">'Options_G'!$A$1:$A$2</definedName>
+    <definedName name="Options_H">'Options_H'!$A$1:$A$7</definedName>
+    <definedName name="Options_L">'Options_L'!$A$1:$A$11</definedName>
+    <definedName name="Options_O">'Options_O'!$A$1:$A$3</definedName>
+  </definedNames>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Nombre</t>
   </si>
@@ -37,7 +42,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Fecha de Nacimiento</t>
+    <t>Fecha Nacimiento</t>
   </si>
   <si>
     <t>Género</t>
@@ -52,186 +57,205 @@
     <t>Grado</t>
   </si>
   <si>
-    <t>Número de Contacto</t>
+    <t>Número Contacto</t>
   </si>
   <si>
     <t>Delegación</t>
   </si>
   <si>
+    <t>Nombre Tutor</t>
+  </si>
+  <si>
+    <t>Email Tutor</t>
+  </si>
+  <si>
+    <t>Modalidad</t>
+  </si>
+  <si>
+    <t>Código Invitación</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Fisica</t>
+  </si>
+  <si>
+    <t>Quimica</t>
+  </si>
+  <si>
+    <t>Matematicas</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>Robotica</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Astronomia</t>
+  </si>
+  <si>
+    <t>Unidad Educativa Copacabana</t>
+  </si>
+  <si>
+    <t>Unidad Educativa Eduardo Abaroa</t>
+  </si>
+  <si>
+    <t>Unidad Educativa Franz Tamayo</t>
+  </si>
+  <si>
+    <t>Unidad Educativa Germán Busch</t>
+  </si>
+  <si>
+    <t>Unidad Educativa Juan XXIII</t>
+  </si>
+  <si>
+    <t>Unidad Educativa Mariscal Sucre</t>
+  </si>
+  <si>
+    <t>Unidad Educativa San Andrés</t>
+  </si>
+  <si>
     <t>Unidad Educativa San Martín</t>
   </si>
   <si>
-    <t>1ro de Secundaria</t>
-  </si>
-  <si>
-    <t>2002-03-04</t>
-  </si>
-  <si>
-    <t>2002-03-05</t>
-  </si>
-  <si>
-    <t>2002-03-06</t>
-  </si>
-  <si>
-    <t>2002/03/03</t>
-  </si>
-  <si>
-    <t>Nombre y Apellidos del tutor</t>
-  </si>
-  <si>
-    <t>Correo del tutor</t>
-  </si>
-  <si>
-    <t>tutorPadreENCARAGDO@GMAIL</t>
-  </si>
-  <si>
-    <t>Estudiante1</t>
-  </si>
-  <si>
-    <t>Estudiante2</t>
-  </si>
-  <si>
-    <t>Estudiante3</t>
-  </si>
-  <si>
-    <t>Estudiante4</t>
-  </si>
-  <si>
-    <t>ApellidoPaterno1</t>
-  </si>
-  <si>
-    <t>ApellidoPaterno2</t>
-  </si>
-  <si>
-    <t>ApellidoPaterno3</t>
-  </si>
-  <si>
-    <t>ApellidoPaterno4</t>
-  </si>
-  <si>
-    <t>ApellidoMaterno1</t>
-  </si>
-  <si>
-    <t>ApellidoMaterno2</t>
-  </si>
-  <si>
-    <t>ApellidoMaterno3</t>
-  </si>
-  <si>
-    <t>ApellidoMaterno4</t>
-  </si>
-  <si>
-    <t>correo1@gmail.com</t>
-  </si>
-  <si>
-    <t>correo2@gmail.com</t>
-  </si>
-  <si>
-    <t>correo3@gmail.com</t>
-  </si>
-  <si>
-    <t>correo4@gmail.com</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Área1</t>
-  </si>
-  <si>
-    <t>Área2</t>
-  </si>
-  <si>
-    <t>Área3</t>
-  </si>
-  <si>
-    <t>Área4</t>
-  </si>
-  <si>
-    <t>Categoria1</t>
-  </si>
-  <si>
-    <t>Categoria2</t>
-  </si>
-  <si>
-    <t>Categoria3</t>
-  </si>
-  <si>
-    <t>Categoria4</t>
-  </si>
-  <si>
-    <t>2do de Primaria</t>
-  </si>
-  <si>
-    <t>3ro de Primaria</t>
-  </si>
-  <si>
-    <t>Nombre Apellidos tutor1</t>
-  </si>
-  <si>
-    <t>Nombre Apellidos tutor2</t>
-  </si>
-  <si>
-    <t>Nombre Apellidos tutor3</t>
-  </si>
-  <si>
-    <t>Nombre Apellidos tutor4</t>
+    <t>Unidad Educativa Santa Cruz de la Sierra</t>
+  </si>
+  <si>
+    <t>Unidad Educativa Simón Bolívar</t>
+  </si>
+  <si>
+    <t>Unidad Educativa Tupac Katari</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Duo</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>INSTRUCCIONES PARA COMPLETAR LA PLANTILLA</t>
+  </si>
+  <si>
+    <t>1. Complete todos los campos obligatorios marcados con (*)</t>
+  </si>
+  <si>
+    <t>2. Nombre, Apellidos, CI, Email y Género son obligatorios.</t>
+  </si>
+  <si>
+    <t>3. La fecha de nacimiento debe estar en formato DD/MM/AAAA.</t>
+  </si>
+  <si>
+    <t>4. El área, categoría y grado deben existir en la convocatoria actual.</t>
+  </si>
+  <si>
+    <t>5. El número de contacto debe tener 8 dígitos.</t>
+  </si>
+  <si>
+    <t>6. Si selecciona modalidad "Duo" o "Equipo", debe proporcionar un código de invitación.</t>
+  </si>
+  <si>
+    <t>7. El código de invitación es necesario para agrupar estudiantes en la misma modalidad.</t>
+  </si>
+  <si>
+    <t>CAMPOS OBLIGATORIOS:</t>
+  </si>
+  <si>
+    <t>- Nombre (*)</t>
+  </si>
+  <si>
+    <t>- Apellido Paterno (*)</t>
+  </si>
+  <si>
+    <t>- Apellido Materno (*)</t>
+  </si>
+  <si>
+    <t>- CI (*)</t>
+  </si>
+  <si>
+    <t>- Email (*)</t>
+  </si>
+  <si>
+    <t>- Fecha Nacimiento (*)</t>
+  </si>
+  <si>
+    <t>- Género (*)</t>
+  </si>
+  <si>
+    <t>- Área (*)</t>
+  </si>
+  <si>
+    <t>- Categoría (*)</t>
+  </si>
+  <si>
+    <t>- Grado (*)</t>
+  </si>
+  <si>
+    <t>- Número Contacto (*)</t>
+  </si>
+  <si>
+    <t>- Delegación (*)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF4F46E5"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F46E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -239,33 +263,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="3">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -344,6 +372,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -378,6 +407,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,30 +583,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" customWidth="1"/>
-    <col min="14" max="14" width="37" customWidth="1"/>
+    <col min="1" max="1" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="5.713" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.426" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="16.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="23.423" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,202 +651,1006 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="L2"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="L3"/>
+      <c r="O3"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="L4"/>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="L5"/>
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="L6"/>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="L7"/>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="L8"/>
+      <c r="O8"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="L9"/>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="L10"/>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="L11"/>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="L12"/>
+      <c r="O12"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="L13"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="L14"/>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="L15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="L16"/>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="L17"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="L18"/>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="L19"/>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="L20"/>
+      <c r="O20"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="L21"/>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="L22"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="L23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="L24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="L25"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="L26"/>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="L27"/>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="L28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="L29"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="L30"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="L31"/>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="L32"/>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="L33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="L34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="L35"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="L36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="L37"/>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="L38"/>
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="L39"/>
+      <c r="O39"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="L40"/>
+      <c r="O40"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="L41"/>
+      <c r="O41"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="L42"/>
+      <c r="O42"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="L43"/>
+      <c r="O43"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="L44"/>
+      <c r="O44"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="L45"/>
+      <c r="O45"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="L46"/>
+      <c r="O46"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="L47"/>
+      <c r="O47"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="L48"/>
+      <c r="O48"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="L49"/>
+      <c r="O49"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="L50"/>
+      <c r="O50"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="L51"/>
+      <c r="O51"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="L52"/>
+      <c r="O52"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="L53"/>
+      <c r="O53"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="L54"/>
+      <c r="O54"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="L55"/>
+      <c r="O55"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="L56"/>
+      <c r="O56"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="L57"/>
+      <c r="O57"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="L58"/>
+      <c r="O58"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="L59"/>
+      <c r="O59"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="L60"/>
+      <c r="O60"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="L61"/>
+      <c r="O61"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="L62"/>
+      <c r="O62"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="L63"/>
+      <c r="O63"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="L64"/>
+      <c r="O64"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="L65"/>
+      <c r="O65"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="L66"/>
+      <c r="O66"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="L67"/>
+      <c r="O67"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="L68"/>
+      <c r="O68"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="L69"/>
+      <c r="O69"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="L70"/>
+      <c r="O70"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="L71"/>
+      <c r="O71"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="L72"/>
+      <c r="O72"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="L73"/>
+      <c r="O73"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="L74"/>
+      <c r="O74"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="L75"/>
+      <c r="O75"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="L76"/>
+      <c r="O76"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="L77"/>
+      <c r="O77"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="L78"/>
+      <c r="O78"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="L79"/>
+      <c r="O79"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="L80"/>
+      <c r="O80"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="L81"/>
+      <c r="O81"/>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="L82"/>
+      <c r="O82"/>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="L83"/>
+      <c r="O83"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="L84"/>
+      <c r="O84"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="L85"/>
+      <c r="O85"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="L86"/>
+      <c r="O86"/>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="L87"/>
+      <c r="O87"/>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="L88"/>
+      <c r="O88"/>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="L89"/>
+      <c r="O89"/>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="L90"/>
+      <c r="O90"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="L91"/>
+      <c r="O91"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="L92"/>
+      <c r="O92"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="L93"/>
+      <c r="O93"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="L94"/>
+      <c r="O94"/>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="L95"/>
+      <c r="O95"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="L96"/>
+      <c r="O96"/>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="L97"/>
+      <c r="O97"/>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="L98"/>
+      <c r="O98"/>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="L99"/>
+      <c r="O99"/>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="L100"/>
+      <c r="O100"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="1" showDropDown="1" showInputMessage="0" showErrorMessage="0" errorTitle="Error" error="El valor no está en la lista" promptTitle="Seleccione una opción" prompt="Elija un valor de la lista" sqref="G2:G100">
+      <formula1>=Options_G</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="1" showDropDown="1" showInputMessage="0" showErrorMessage="0" errorTitle="Error" error="El valor no está en la lista" promptTitle="Seleccione una opción" prompt="Elija un valor de la lista" sqref="H2:H100">
+      <formula1>=Options_H</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="1" showDropDown="1" showInputMessage="0" showErrorMessage="0" errorTitle="Error" error="El valor no está en la lista" promptTitle="Seleccione una opción" prompt="Elija un valor de la lista" sqref="L2:L100">
+      <formula1>=Options_L</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="1" showDropDown="1" showInputMessage="0" showErrorMessage="0" errorTitle="Error" error="El valor no está en la lista" promptTitle="Seleccione una opción" prompt="Elija un valor de la lista" sqref="O2:O100">
+      <formula1>=Options_O</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="D2">
-        <v>12345679</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="60" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2">
-        <v>63887464</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3">
-        <v>12345679</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3">
-        <v>63887464</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
-        <v>12345679</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4">
-        <v>63887464</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>12345679</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>63887464</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>21</v>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{3B374B01-F81A-45AC-AFAA-0B896D3AEA88}"/>
-    <hyperlink ref="N2" r:id="rId2" xr:uid="{9B4B4810-6E59-49C0-8AE5-A1E2860537F5}"/>
-    <hyperlink ref="N3" r:id="rId3" xr:uid="{83196340-12AD-4EB7-A211-12A7E0958961}"/>
-    <hyperlink ref="N4" r:id="rId4" xr:uid="{B17A8E36-C399-4E49-B0DC-C793DBCEA39D}"/>
-    <hyperlink ref="N5" r:id="rId5" xr:uid="{BFFE8C52-F7CA-4440-B140-C9498842ED6C}"/>
-    <hyperlink ref="E3:E5" r:id="rId6" display="t9@gmail.com" xr:uid="{00100EBB-8124-4249-8F82-0CDCC3E476E8}"/>
-    <hyperlink ref="E3" r:id="rId7" xr:uid="{5F59B778-E74F-434D-9676-0F736C1303A2}"/>
-    <hyperlink ref="E4" r:id="rId8" xr:uid="{38C3091A-71F6-4B27-BD5A-DF91006D84BA}"/>
-    <hyperlink ref="E5" r:id="rId9" xr:uid="{45EC7D2B-9946-4C55-A87D-98AB6A48BD5F}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId10"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>